--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_Bot 1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893E96B-53DC-4B17-90BA-36D6D9F27676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FCD3D-BF3F-4A21-9051-7D33463050C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="5040" windowWidth="7500" windowHeight="3000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="317">
   <si>
     <t>Name</t>
   </si>
@@ -397,12 +397,6 @@
     <t>RetryNumber</t>
   </si>
   <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 1\Data\Input\</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 1\Exceptions_Screenshots\</t>
-  </si>
-  <si>
     <t>Excel EXE Path</t>
   </si>
   <si>
@@ -571,9 +565,6 @@
   </si>
   <si>
     <t>MonthlyCust</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 1\Data\Input\ScheduleDetails_Bot1.xlsx</t>
   </si>
   <si>
     <t>Hello Receiver, 
@@ -925,6 +916,111 @@
   </si>
   <si>
     <t>Comments2 Column from Master file</t>
+  </si>
+  <si>
+    <t>StatusSuccessMessage</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Status Message for Successful transaction</t>
+  </si>
+  <si>
+    <t>StatusBEMessage</t>
+  </si>
+  <si>
+    <t>Business Exception</t>
+  </si>
+  <si>
+    <t>Status Message for Business Exception</t>
+  </si>
+  <si>
+    <t>StatusSEMessage</t>
+  </si>
+  <si>
+    <t>System Exception</t>
+  </si>
+  <si>
+    <t>Status Message for System Exception</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\Input\ScheduleDetails_Bot1.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\Input\</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Exceptions_Screenshots\</t>
+  </si>
+  <si>
+    <t>QuotationNumCol</t>
+  </si>
+  <si>
+    <t>Quotation Number</t>
+  </si>
+  <si>
+    <t>Quotation File Path in Master file</t>
+  </si>
+  <si>
+    <t>QuotationFilePathCol</t>
+  </si>
+  <si>
+    <t>Quotation File Path</t>
+  </si>
+  <si>
+    <t>PONumberCol</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>PO Number in Master file</t>
+  </si>
+  <si>
+    <t>POFilePathCol</t>
+  </si>
+  <si>
+    <t>PO File Path</t>
+  </si>
+  <si>
+    <t>PO File Path in Master file</t>
+  </si>
+  <si>
+    <t>ProjectCodeCol</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Project Code in Master file</t>
+  </si>
+  <si>
+    <t>InvoiceFilePathCol</t>
+  </si>
+  <si>
+    <t>Invoice File Path</t>
+  </si>
+  <si>
+    <t>Invoice File Path in Master file</t>
+  </si>
+  <si>
+    <t>InvoiceNumberCol</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Number in Master file</t>
+  </si>
+  <si>
+    <t>ToProceedWithInvoiceCol</t>
+  </si>
+  <si>
+    <t>To Proceed with Invoice (Y/N)</t>
+  </si>
+  <si>
+    <t>To Proceed with Invoice (Y/N) in Master file</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B74"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1385,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1396,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1407,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1415,10 +1511,10 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1426,10 +1522,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1437,10 +1533,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1448,10 +1544,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1462,7 +1558,7 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1473,7 +1569,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1484,7 +1580,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -1495,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1506,7 +1602,7 @@
         <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
@@ -1517,7 +1613,7 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
@@ -1528,7 +1624,7 @@
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -1539,7 +1635,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -1550,7 +1646,7 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1561,7 +1657,7 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1572,7 +1668,7 @@
         <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1580,10 +1676,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1594,7 +1690,7 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1605,7 +1701,7 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1613,10 +1709,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1627,7 +1723,7 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1638,7 +1734,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" customHeight="1">
@@ -1649,7 +1745,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1660,7 +1756,7 @@
         <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1671,7 +1767,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1682,7 +1778,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1693,7 +1789,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1704,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1715,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1726,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1737,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -1748,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -1759,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1770,476 +1866,586 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
         <v>168</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
-        <v>218</v>
-      </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" t="s">
         <v>216</v>
       </c>
-      <c r="B74" t="s">
-        <v>219</v>
-      </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
         <v>217</v>
       </c>
-      <c r="B75" t="s">
-        <v>220</v>
-      </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -4331,7 +4537,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4339,7 +4545,7 @@
         <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4347,7 +4553,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4355,7 +4561,7 @@
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4363,7 +4569,7 @@
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4639,7 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -4444,7 +4650,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -4455,7 +4661,7 @@
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4466,7 +4672,7 @@
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -4477,7 +4683,7 @@
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FCD3D-BF3F-4A21-9051-7D33463050C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DA5FB-5466-4AB8-9511-7B4C2F72F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="5040" windowWidth="7500" windowHeight="3000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="334">
   <si>
     <t>Name</t>
   </si>
@@ -1021,6 +1021,63 @@
   </si>
   <si>
     <t>To Proceed with Invoice (Y/N) in Master file</t>
+  </si>
+  <si>
+    <t>ExtractRecordsLimitDaily</t>
+  </si>
+  <si>
+    <t>ExtractRecordsLimitConso</t>
+  </si>
+  <si>
+    <t>ExtractRecordsLimitMonthly</t>
+  </si>
+  <si>
+    <t>Extract this number of entries from SDMS portal for Daily Scenario</t>
+  </si>
+  <si>
+    <t>Extract this number of entries from SDMS portal for Consolidated Scenario</t>
+  </si>
+  <si>
+    <t>Extract this number of entries from SDMS portal for Monthly Scenario</t>
+  </si>
+  <si>
+    <t>TimeSheetErrorSubject</t>
+  </si>
+  <si>
+    <t>TimeSheetErrorBody</t>
+  </si>
+  <si>
+    <t>Hello Receiver, 
+         Exception occurred in DO and Invoice Process Automation bot 1. 
+Exception Details: Timesheet icon does not exist for this Job Number @JobNumber
+Process Type: Monthly
+Note: This is auto generated email by bot please don't reply to this.
+Thanks,
+Bot</t>
+  </si>
+  <si>
+    <t>Timesheet icon does not exist for this Job Number @JobNumber: @TodaysDate</t>
+  </si>
+  <si>
+    <t>DelayBeforeFileDownload</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DailyDOPrintedFilter</t>
+  </si>
+  <si>
+    <t>MonthlyJobCategoryFilter</t>
+  </si>
+  <si>
+    <t>MonthlyStatusFilter</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>00:00:30</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1098,6 +1155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2441,27 +2499,99 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A93" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A99" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A100" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -4510,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4584,7 +4714,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DA5FB-5466-4AB8-9511-7B4C2F72F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A797C-AC4F-4C4A-8B01-A6D1DECF346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,9 +1062,6 @@
     <t>DelayBeforeFileDownload</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>DailyDOPrintedFilter</t>
   </si>
   <si>
@@ -1078,6 +1075,9 @@
   </si>
   <si>
     <t>00:00:30</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2553,20 +2553,20 @@
         <v>327</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
         <v>217</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="100" spans="1:2" ht="14.25" customHeight="1">
       <c r="A100" t="s">
+        <v>330</v>
+      </c>
+      <c r="B100" t="s">
         <v>331</v>
-      </c>
-      <c r="B100" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A797C-AC4F-4C4A-8B01-A6D1DECF346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D98D7-4E4B-4ACA-85E1-0C9DADB75562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4536" yWindow="7176" windowWidth="7500" windowHeight="2304" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -377,21 +377,6 @@
   </si>
   <si>
     <t>Error in DO and Invoice Process Automation Bot 1: Failed to Login to SDMS web portal @TodaysDate</t>
-  </si>
-  <si>
-    <t>CCEmailIDs</t>
-  </si>
-  <si>
-    <t>SDMSUrl</t>
-  </si>
-  <si>
-    <t>BusinessEmailIDs</t>
-  </si>
-  <si>
-    <t>JobPageUrl</t>
-  </si>
-  <si>
-    <t>DeliveryOrderPageUrl</t>
   </si>
   <si>
     <t>RetryNumber</t>
@@ -1077,7 +1062,34 @@
     <t>00:00:30</t>
   </si>
   <si>
-    <t>All</t>
+    <t>https://hhtc.insightservicing.sg/guest/login?return=%2F</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder</t>
+  </si>
+  <si>
+    <t>artee.natu@innowise.us</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>If timesheet icon is not found this subject will be attached with the error email</t>
+  </si>
+  <si>
+    <t>If timesheet icon is not found this body text will be attached with the error email</t>
+  </si>
+  <si>
+    <t>Delay will be given before the download check of file</t>
+  </si>
+  <si>
+    <t>Filter of Daily scenario</t>
+  </si>
+  <si>
+    <t>Filter of Monthly scenario</t>
+  </si>
+  <si>
+    <t>DelayOneThousand</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1539,7 +1551,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1550,7 +1562,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1561,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1569,10 +1581,10 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1580,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1591,10 +1603,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1602,10 +1614,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1628,7 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1627,7 +1639,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1638,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -1649,7 +1661,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1660,7 +1672,7 @@
         <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
@@ -1671,7 +1683,7 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
@@ -1682,7 +1694,7 @@
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -1693,7 +1705,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -1704,7 +1716,7 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1715,7 +1727,7 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1726,7 +1738,7 @@
         <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1734,10 +1746,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1748,7 +1760,7 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1759,7 +1771,7 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1767,10 +1779,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1781,7 +1793,7 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1792,7 +1804,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" customHeight="1">
@@ -1803,7 +1815,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1814,7 +1826,7 @@
         <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1825,7 +1837,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1836,7 +1848,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1847,7 +1859,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1858,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1869,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1880,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1891,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -1902,18 +1914,18 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1924,674 +1936,749 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B91" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C91" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="C95" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A99" t="s">
         <v>324</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A100" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A97" t="s">
-        <v>327</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
+      <c r="B100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A99" t="s">
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B99" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A100" t="s">
-        <v>330</v>
-      </c>
-      <c r="B100" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A106" t="s">
+        <v>337</v>
+      </c>
+      <c r="B106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -3466,9 +3553,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{AD309DEE-B8D8-4A7D-B651-869C229797D7}"/>
+    <hyperlink ref="B103" r:id="rId2" xr:uid="{4F6F89CF-35F6-4E7B-85F3-078071B86125}"/>
+    <hyperlink ref="B105" r:id="rId3" xr:uid="{C00EE444-5636-49D8-BBE8-AF4CFAF980A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4640,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4666,16 +4755,18 @@
       <c r="A2" t="s">
         <v>92</v>
       </c>
+      <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4683,7 +4774,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4691,7 +4782,7 @@
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4699,7 +4790,7 @@
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4805,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4762,59 +4853,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D98D7-4E4B-4ACA-85E1-0C9DADB75562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0D661-0B67-499D-A3C1-EF9D149412D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="7176" windowWidth="7500" windowHeight="2304" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="7500" windowHeight="2304" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1090,6 +1090,12 @@
   </si>
   <si>
     <t>DelayOneThousand</t>
+  </si>
+  <si>
+    <t>Customer Entity</t>
+  </si>
+  <si>
+    <t>CustomerEntityCol</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2673,7 +2679,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A107" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" t="s">
+        <v>338</v>
+      </c>
+    </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4730,7 +4743,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0D661-0B67-499D-A3C1-EF9D149412D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE974E-B47B-40CD-8652-5A4761882EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="7500" windowHeight="2304" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1062,40 +1062,40 @@
     <t>00:00:30</t>
   </si>
   <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder</t>
+  </si>
+  <si>
+    <t>artee.natu@innowise.us</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>If timesheet icon is not found this subject will be attached with the error email</t>
+  </si>
+  <si>
+    <t>If timesheet icon is not found this body text will be attached with the error email</t>
+  </si>
+  <si>
+    <t>Delay will be given before the download check of file</t>
+  </si>
+  <si>
+    <t>Filter of Daily scenario</t>
+  </si>
+  <si>
+    <t>Filter of Monthly scenario</t>
+  </si>
+  <si>
+    <t>DelayOneThousand</t>
+  </si>
+  <si>
+    <t>Customer Entity</t>
+  </si>
+  <si>
+    <t>CustomerEntityCol</t>
+  </si>
+  <si>
     <t>https://hhtc.insightservicing.sg/guest/login?return=%2F</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/deliveryOrder</t>
-  </si>
-  <si>
-    <t>artee.natu@innowise.us</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>If timesheet icon is not found this subject will be attached with the error email</t>
-  </si>
-  <si>
-    <t>If timesheet icon is not found this body text will be attached with the error email</t>
-  </si>
-  <si>
-    <t>Delay will be given before the download check of file</t>
-  </si>
-  <si>
-    <t>Filter of Daily scenario</t>
-  </si>
-  <si>
-    <t>Filter of Monthly scenario</t>
-  </si>
-  <si>
-    <t>DelayOneThousand</t>
-  </si>
-  <si>
-    <t>Customer Entity</t>
-  </si>
-  <si>
-    <t>CustomerEntityCol</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2558,7 +2558,7 @@
         <v>321</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
@@ -2569,7 +2569,7 @@
         <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
@@ -2580,7 +2580,7 @@
         <v>327</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
@@ -2588,10 +2588,10 @@
         <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
@@ -2602,7 +2602,7 @@
         <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
@@ -2613,7 +2613,7 @@
         <v>326</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
@@ -2621,7 +2621,7 @@
         <v>67</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
         <v>148</v>
@@ -2632,7 +2632,7 @@
         <v>58</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
         <v>149</v>
@@ -2643,7 +2643,7 @@
         <v>44</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
@@ -2654,7 +2654,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C104" t="s">
         <v>151</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4742,7 +4742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE974E-B47B-40CD-8652-5A4761882EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DC5AE-6A5F-4114-B1B0-A54CCE4EE229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="15336" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>of Master htle where bot and user will save data</t>
-  </si>
-  <si>
-    <t>Email Body for sending Report for Daily Process</t>
   </si>
   <si>
     <t>Email Subject for sending Report for Consolidated Process</t>
@@ -930,15 +927,6 @@
     <t>Status Message for System Exception</t>
   </si>
   <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\Input\ScheduleDetails_Bot1.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\Input\</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Exceptions_Screenshots\</t>
-  </si>
-  <si>
     <t>QuotationNumCol</t>
   </si>
   <si>
@@ -1096,6 +1084,27 @@
   </si>
   <si>
     <t>https://hhtc.insightservicing.sg/guest/login?return=%2F</t>
+  </si>
+  <si>
+    <t>Delay of 1 sec</t>
+  </si>
+  <si>
+    <t>Customer Entity column from Master file</t>
+  </si>
+  <si>
+    <t>invoicing@huphin.com.sg</t>
+  </si>
+  <si>
+    <t>Data\Input\ScheduleDetails_Bot1.xlsx</t>
+  </si>
+  <si>
+    <t>Email body for sending Report for daily Process</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots\</t>
+  </si>
+  <si>
+    <t>Data\Input\</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1587,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -1598,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -1609,7 +1618,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -1620,7 +1629,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -1689,7 +1698,7 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
@@ -1700,7 +1709,7 @@
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -1711,7 +1720,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -1722,7 +1731,7 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1733,7 +1742,7 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1744,7 +1753,7 @@
         <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1752,10 +1761,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1766,7 +1775,7 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1777,7 +1786,7 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1785,10 +1794,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1799,7 +1808,7 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1810,7 +1819,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" customHeight="1">
@@ -1821,7 +1830,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1832,7 +1841,7 @@
         <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1843,7 +1852,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1854,7 +1863,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1865,7 +1874,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1876,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1887,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1898,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1909,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -1920,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -1931,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1942,678 +1951,678 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" t="s">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
         <v>224</v>
       </c>
-      <c r="B65" t="s">
-        <v>225</v>
-      </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" t="s">
         <v>222</v>
       </c>
-      <c r="B66" t="s">
-        <v>223</v>
-      </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" t="s">
         <v>220</v>
       </c>
-      <c r="B72" t="s">
-        <v>221</v>
-      </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
         <v>232</v>
       </c>
-      <c r="B78" t="s">
-        <v>233</v>
-      </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" t="s">
         <v>277</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>278</v>
-      </c>
-      <c r="C81" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" t="s">
         <v>280</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>281</v>
-      </c>
-      <c r="C82" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" t="s">
         <v>283</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>284</v>
-      </c>
-      <c r="C83" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" t="s">
         <v>330</v>
-      </c>
-      <c r="C98" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
@@ -2621,21 +2630,21 @@
         <v>67</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
         <v>58</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>329</v>
+      <c r="B102" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
@@ -2643,10 +2652,10 @@
         <v>44</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
@@ -2654,10 +2663,10 @@
         <v>42</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
@@ -2668,22 +2677,28 @@
         <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B106">
         <v>1000</v>
       </c>
+      <c r="C106" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3568,9 +3583,10 @@
     <hyperlink ref="B12" r:id="rId1" xr:uid="{AD309DEE-B8D8-4A7D-B651-869C229797D7}"/>
     <hyperlink ref="B103" r:id="rId2" xr:uid="{4F6F89CF-35F6-4E7B-85F3-078071B86125}"/>
     <hyperlink ref="B105" r:id="rId3" xr:uid="{C00EE444-5636-49D8-BBE8-AF4CFAF980A3}"/>
+    <hyperlink ref="B102" r:id="rId4" xr:uid="{A50C9DD0-9792-454A-8FE5-1DDE56BAFBE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4742,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4770,7 +4786,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4779,7 +4795,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4787,7 +4803,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4795,7 +4811,7 @@
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4803,7 +4819,7 @@
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DC5AE-6A5F-4114-B1B0-A54CCE4EE229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3BBBB-9FCB-4DD0-A89C-F9CAF9DF6B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="15336" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3BBBB-9FCB-4DD0-A89C-F9CAF9DF6B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3BD0DA-BBEA-4C34-AEA6-8E935ACC1C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="15336" windowHeight="8016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1095,9 +1095,6 @@
     <t>invoicing@huphin.com.sg</t>
   </si>
   <si>
-    <t>Data\Input\ScheduleDetails_Bot1.xlsx</t>
-  </si>
-  <si>
     <t>Email body for sending Report for daily Process</t>
   </si>
   <si>
@@ -1105,6 +1102,9 @@
   </si>
   <si>
     <t>Data\Input\</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Schedule Detail Files\ScheduleDetails_Bot1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1596,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -1618,7 +1618,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -1698,7 +1698,7 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
@@ -4758,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\Invoice Process Automation\DO and Invoice Process Automation_Bot 1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\DO and Invoice Process Automation_Bot 1_warnigs removed_V2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3BD0DA-BBEA-4C34-AEA6-8E935ACC1C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEC4F5-519A-4D2D-BBB3-9E0C3A88853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3540" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -1053,9 +1053,6 @@
     <t>https://hhtc.insightservicing.sg/deliveryOrder</t>
   </si>
   <si>
-    <t>artee.natu@innowise.us</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1105,6 +1102,39 @@
   </si>
   <si>
     <t>M:\2. Sales Department\Unipath\Schedule Detail Files\ScheduleDetails_Bot1.xlsx</t>
+  </si>
+  <si>
+    <t>SubjectForScreenResolution</t>
+  </si>
+  <si>
+    <t>Screen resolution is not matching</t>
+  </si>
+  <si>
+    <t>BodyForScreenResolution</t>
+  </si>
+  <si>
+    <t>Subject for screen resolution</t>
+  </si>
+  <si>
+    <t>Body for screen resolution</t>
+  </si>
+  <si>
+    <t>OutputMasterFilePath</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Master File\Bot 1 Output Files\</t>
+  </si>
+  <si>
+    <t>artee.natu@innowise.us; durvesh.bendale@innowise.us</t>
+  </si>
+  <si>
+    <t>DelayBeforeEmailSend</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>Delay befor sending email</t>
   </si>
 </sst>
 </file>
@@ -1500,16 +1530,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1547,7 +1577,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="28.8">
+    <row r="3" spans="1:26" ht="30">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1626,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -1607,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -1618,7 +1648,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -1698,10 +1728,10 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.2" customHeight="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25.15" customHeight="1">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" customHeight="1">
+    <row r="28" spans="1:3" ht="13.9" customHeight="1">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2567,7 +2597,7 @@
         <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
@@ -2578,7 +2608,7 @@
         <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
@@ -2589,7 +2619,7 @@
         <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
@@ -2597,10 +2627,10 @@
         <v>319</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
@@ -2611,7 +2641,7 @@
         <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
@@ -2622,7 +2652,7 @@
         <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
@@ -2630,7 +2660,7 @@
         <v>67</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C101" t="s">
         <v>147</v>
@@ -2641,7 +2671,7 @@
         <v>58</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C102" t="s">
         <v>148</v>
@@ -2652,7 +2682,7 @@
         <v>44</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C103" t="s">
         <v>149</v>
@@ -2682,30 +2712,67 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B106">
         <v>1000</v>
       </c>
       <c r="C106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A108" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A111" t="s">
+        <v>350</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" t="s">
+        <v>352</v>
+      </c>
+    </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
@@ -3598,12 +3665,12 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3640,7 +3707,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3651,7 +3718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +3832,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -4758,15 +4825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4810,6 +4877,7 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -4818,6 +4886,7 @@
       <c r="A6" t="s">
         <v>96</v>
       </c>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>146</v>
       </c>
@@ -4837,12 +4906,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
